--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2408.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2408.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.056060226296335</v>
+        <v>1.198371767997742</v>
       </c>
       <c r="B1">
-        <v>2.203919707362485</v>
+        <v>2.126335620880127</v>
       </c>
       <c r="C1">
-        <v>9.190565605754959</v>
+        <v>4.44853401184082</v>
       </c>
       <c r="D1">
-        <v>1.854584109108976</v>
+        <v>2.83938193321228</v>
       </c>
       <c r="E1">
-        <v>0.991681074917394</v>
+        <v>1.206780910491943</v>
       </c>
     </row>
   </sheetData>
